--- a/outputs/DHAKA4.xlsx
+++ b/outputs/DHAKA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a "Bug Reports, Suggestions, Other Feedback" section that clearly directs users to provide feedback, including creating new issues. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will likely consider finding the issue tracker as a necessary step toward creating a new issue, given the relevant information included in this section.</t>
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, motivated to accomplish the task, would likely consider finding the issue tracker as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to read through the page and identify this section as pertinent to their goal.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" link is prominently displayed in the navigation bar at the top of the page, making it easy for Abi to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she is likely to notice this link and understand that it will lead her to the issue tracker, which is essential for creating a new issue. The page provides enough context and clear navigation, making it suitable for Abi to take this action.</t>
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, motivated to create a new issue, would recognize this as a logical step. Additionally, ABI's comprehensive information processing style would lead them to read through the page and identify the "Issues" link as relevant to their goal. The page provides enough context for ABI to understand that clicking the "Issues" link is the appropriate action to take.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the 'Issues' link, Abi will land on a page that lists existing issues with a "New issue" button prominently displayed. This clear and organized layout provides Abi with immediate feedback that she is on the right track toward creating a new issue. The information on the page, including the list of issues and the option to create a new one, aligns with her motivations and comprehensive information processing style. She can see that she is making progress toward her goal and has all the necessary information to proceed.</t>
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently displays a "New issue" button. This provides clear feedback that ABI is in the right place to create a new issue. The layout and labeling of the page make it evident that ABI is making progress toward their goal, and the "New issue" button is easily identifiable, providing the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed on the issues list page, making it easy for Abi to identify the next step. The clear labeling and placement of the button provide sufficient guidance for Abi to understand that clicking it will allow her to create a new issue. This aligns with her motivation to accomplish the task and her comprehensive information processing style, as she can clearly see the path forward without needing to tinker or guess.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. ABI, motivated to create a new issue, will recognize this button as the appropriate action to take. The page layout and labeling provide sufficient context for ABI to understand that clicking the "New issue" button will allow them to proceed with their goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New Issue" button, Abi will land on a page that clearly categorizes different types of issues she can create, such as "Bug report," "Suggestion for improvement," and "Feature requests." Each option has a "Get started" button, making it evident that these are the steps to proceed with creating a new issue. The clear and organized presentation reassures Abi that she is making progress toward her goal and provides her with all the necessary information to proceed. This straightforward layout aligns with her motivations and comprehensive information processing style.</t>
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, etc.) with "Get started" buttons next to each category. This layout provides clear feedback that ABI is on the right track and making progress toward their goal. The page is well-organized and provides all the necessary information for ABI to proceed with creating a new issue, aligning with their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists different actions Abi can take, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability," each accompanied by a "Get started" button. This straightforward layout makes it evident what the next step is for each type of issue she wants to create. Given Abi's motivation to accomplish tasks and her preference for comprehensive information, she will understand that clicking "Get started" under "Bug report" is the appropriate action to take to proceed with creating a new issue. The page is clear and provides enough guidance for her to feel confident in taking this action.</t>
+Why: The page clearly lists different types of issues with corresponding "Get started" buttons. ABI, motivated to create a bug report, will easily identify the "Get started" button next to "Bug report" as the appropriate action to take. The page layout and labeling provide sufficient context for ABI to understand what to do next, aligning with their comprehensive information processing style. The clear and straightforward design ensures that ABI knows what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the "Get Started" button for a "Bug Report," Abi is directed to a detailed bug report form. The form is well-structured, with clear fields for entering the bug title, version, operating system, and other relevant details. Instructions and guidelines are provided throughout the form, ensuring that Abi has all the information she needs to complete it. This clear and comprehensive layout aligns with Abi's motivation to complete the task and her preference for detailed, step-by-step processes. She will know that she is making progress toward her goal and has all the necessary information to proceed.</t>
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed bug report form. The form is well-structured, with clear fields for entering the necessary information, such as the title, version, operating system, and steps to reproduce the behavior. This layout provides clear feedback that ABI is making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, ensuring they have all the information they need to complete the bug report.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form is well-structured and provides clear instructions for each field that needs to be filled out. It includes labeled fields for the bug title, JabRef version, operating system, and steps to reproduce the behavior, among other details. The form also provides helpful instructions, such as checking the latest development build and including relevant details in the appendix. This comprehensive, step-by-step approach aligns well with Abi's motivations to complete the task and her information processing style, which involves gathering detailed information before taking action. Therefore, Abi will know what to do at this step and find the page good enough to fill out the bug report form.</t>
+Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for ABI to understand what information is required. Each section of the form is clearly delineated, and the required fields are marked with an asterisk, providing clear guidance on what needs to be filled out. This aligns with ABI's comprehensive information processing style, ensuring they have all the necessary information to complete the form. ABI, motivated to report a bug, will find the page good enough to take this action.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form that Abi has filled out provides clear, labeled fields and sections for all necessary information, such as the bug title, JabRef version, operating system, steps to reproduce the behavior, and an appendix for additional details. The structured and comprehensive layout of the form ensures that Abi knows she is making progress toward her goal. The "Submit new issue" button at the bottom of the form further confirms that she is on the right track. This aligns with Abi's motivations to complete the task and her preference for detailed, step-by-step processes. Therefore, she will know that she did the right thing and has all the information she needs to proceed.</t>
+Why: After filling out the bug report form, ABI will see that all the required fields are completed and the "Submit new issue" button is enabled. This provides clear feedback that they have done the right thing and are making progress toward their goal. The form is well-structured and provides all the necessary information for ABI to understand that they are on the right track. The clear layout and instructions align with ABI's comprehensive information processing style, ensuring they have all the information they need to proceed.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is clearly labeled and prominently placed at the bottom of the bug report form, making it easy for Abi to identify the next step. The form is well-structured and provides all necessary fields and instructions, ensuring that Abi has input all required information. Given Abi's motivation to complete the task and her preference for comprehensive, step-by-step processes, she will understand that clicking this button is the final step to submit her bug report. The page is intuitive and provides clear guidance, ensuring Abi knows what to do at this step.</t>
+Why: The "Submit new issue" button is clearly visible and enabled, indicating that ABI has completed all the necessary fields in the bug report form. ABI, motivated to report the bug, will recognize this button as the final step to submit their report. The page layout and instructions provide clear guidance, ensuring ABI knows what to do next. This aligns with ABI's comprehensive information processing style, making it clear that clicking the "Submit new issue" button is the appropriate action to take.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she entered. The issue is clearly marked as "Open," and all the information she provided is visible and organized, which confirms that her submission was successful. Additionally, options to edit the issue or add comments are available, indicating that she has control over the issue and can continue to interact with it if needed. This clear feedback reassures Abi that she did the right thing and is making progress toward her goal. The page provides all necessary information and aligns with her motivation to complete the task and her comprehensive information processing style.</t>
+Why: After clicking the "Submit new issue" button, ABI is taken to a page that displays the newly created issue with all the details they entered. This provides clear feedback that the issue has been successfully submitted, confirming that ABI did the right thing. The page layout shows the issue status as "Open" and includes all the information ABI provided, ensuring they have all the necessary information and can see their progress toward their goal. This aligns with ABI's comprehensive information processing style, providing reassurance that the task has been completed correctly.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA4.xlsx
+++ b/outputs/DHAKA4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Abi, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely read through the page and identify this section as a step toward finding the issue tracker.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to finding the issue tracker. ABI is motivated to accomplish the task and will likely read through the page comprehensively to gather information. This aligns with ABI's information processing style, as they prefer to gather all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, which is a common location for issue tracking in repositories. Abi, who is motivated to accomplish the task and uses a comprehensive information processing style, would likely recognize this as the appropriate next step to find the issue tracker. The page provides enough context and familiar layout for Abi to feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI is motivated to complete the task and will likely read through the page comprehensively to gather information. The presence of the "Issues" link aligns with ABI's information processing style, as it provides a clear and direct path to the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a prominent "New issue" button. This indicates that Abi is in the right place to create a new issue, confirming that she is making progress toward her goal. The layout and information provided are straightforward and align with Abi's comprehensive information processing style, giving her the confidence that she has done the right thing and can proceed with creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently features a "New issue" button. This provides a clear indication that ABI is in the right place to create a new issue. The layout and labeling of the page make it evident that ABI is making progress toward the goal of finding the issue tracker and creating a new issue. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as the page provides all the necessary information in an organized manner.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed in green at the top right of the page, making it clear and easy to find. Abi, who is motivated to create a new issue and uses a comprehensive information processing style, will recognize this button as the next step in the process. The page layout and the clear labeling of the button provide sufficient guidance for Abi to confidently take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI is motivated to complete the task and will likely recognize that clicking this button is the next step in creating a new issue. The page layout and labeling provide a clear indication of what the button does, aligning with ABI's comprehensive information processing style. This ensures that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New issue" button, Abi is taken to a page that clearly presents different options for creating a new issue, such as "Bug report" and "Suggestion for improvement," each with a "Get started" button. This layout confirms to Abi that she is on the right track and making progress toward her goal. The clear categorization and straightforward instructions align with Abi's comprehensive information processing style, providing her with the necessary information to proceed confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement) with "Get started" buttons next to each category. This clear categorization and labeling provide ABI with the necessary information to proceed with creating a new issue. The page layout is straightforward and aligns with ABI's motivation to complete the task and their comprehensive information processing style, ensuring that ABI knows they are making progress toward their goal and has all the information needed to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for Abi to identify the next step. Abi, who is motivated to create a new issue and uses a comprehensive information processing style, will understand that clicking this button is the appropriate action to take. The page layout and clear instructions provide sufficient guidance for Abi to proceed confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to it. This clear labeling and call to action make it evident to ABI what to do next. ABI is motivated to complete the task and will recognize that clicking the "Get started" button for "Bug report" is the appropriate next step. The straightforward layout and clear instructions align with ABI's comprehensive information processing style, ensuring that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," Abi is taken to a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information, such as the title, version, operating system, and steps to reproduce the behavior. This structured layout confirms to Abi that she is on the right track and making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, providing her with all the necessary information to proceed confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides ABI with all the necessary information to proceed with creating a bug report. The clear instructions and comprehensive layout align with ABI's motivation to complete the task and their preference for a detailed, step-by-step process. This ensures that ABI knows they are making progress toward their goal and has all the information needed to proceed.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, and steps to reproduce the behavior. Each field includes a description of what information is needed, which aligns with Abi's comprehensive information processing style. Abi, who is motivated to complete the task, will understand what to do at this step and find the page good enough to take this action. The form provides all the necessary guidance and information for Abi to fill it out confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and additional details. Each field is accompanied by instructions or examples, making it clear what information is required. This aligns with ABI's motivation to complete the task and their preference for a detailed, step-by-step process. The comprehensive layout and clear instructions ensure that ABI knows what to do at this step and feels confident in filling out the form.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is enabled. This clear indication that the form is ready to be submitted confirms to Abi that she has done the right thing and is making progress toward her goal. The structured layout and comprehensive nature of the form provide all the necessary information, aligning with Abi's information processing style and ensuring she feels confident in her actions.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, ABI will see a completed form with all the required fields filled in and a "Submit new issue" button at the bottom. This clear indication of progress and the presence of a submission button provide ABI with the confidence that they have done the right thing and are making progress toward their goal. The structured format and clear instructions ensure that ABI has all the information needed to proceed, aligning with their motivation to complete the task and their preference for a detailed, step-by-step process.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear that this is the final step to submit the bug report. Abi, who is motivated to complete the task and uses a comprehensive information processing style, will understand that clicking this button is the appropriate action to take. The page layout and clear labeling provide sufficient guidance for Abi to proceed confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the completed bug report form. ABI, having filled out the form, will recognize that clicking this button is the final step to submit the issue. The clear labeling and placement of the button make it evident what action to take next. This aligns with ABI's motivation to complete the task and their preference for a detailed, step-by-step process. The page provides a clear path to submission, ensuring that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she entered. The issue is clearly marked as "Open," and the information is presented in a structured format, confirming to Abi that she has successfully submitted the issue and is making progress toward her goal. The page layout and the visibility of the submitted information align with Abi's comprehensive information processing style, providing her with the necessary confirmation and confidence that she did the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information ABI provided is displayed in an organized manner. This clear feedback confirms to ABI that they have successfully submitted the issue and are making progress toward their goal. The structured layout and visible confirmation align with ABI's motivation to complete the task and their preference for a detailed, step-by-step process, ensuring that ABI knows they did the right thing and has all the information needed.</t>
         </is>
       </c>
     </row>
